--- a/biology/Botanique/Volubilis_(plante)/Volubilis_(plante).xlsx
+++ b/biology/Botanique/Volubilis_(plante)/Volubilis_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le mot volubilis est un terme du vocabulaire courant qui désigne plusieurs taxons de plantes à fleurs qui sont toutes annuelles, lianescentes et volubiles. Ce nom ne correspond pas à un niveau précis de classification scientifique des espèces. C’est-à-dire qu’il s’agit d'un nom vernaculaire dont le sens est ambigu en biologie car il désigne seulement une partie des différentes espèces de plantes à fleurs classées dans la famille des Convolvulaceae, principalement dans le genre Ipomoea. 
 Le plus souvent toutefois, en disant « volubilis » une majorité de francophones fait référence à l’espèce Ipomoea purpurea.
-Parmi les espèces concernées, on peut citer[1] : 
+Parmi les espèces concernées, on peut citer : 
 Ipomoea nil,
 Ipomoea tricolor,
 Ipomoea purpurea,
